--- a/resources.xlsx
+++ b/resources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy\OneDrive - University College London\General\website\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/ucfnmac_ucl_ac_uk/Documents/General/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AB9000-7234-4C1A-83B5-05361BA71BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="14_{753DDDC7-04B4-43F4-8EA7-A447851C672E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F8FD299-6695-4FE0-8608-27A2ECB36029}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="17460" windowHeight="10260" xr2:uid="{6362DE6B-9A95-49B5-8331-B8A2B0F11EDC}"/>
+    <workbookView xWindow="14025" yWindow="4230" windowWidth="43200" windowHeight="12330" xr2:uid="{6362DE6B-9A95-49B5-8331-B8A2B0F11EDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="88">
   <si>
     <t>UCL</t>
   </si>
@@ -89,9 +89,6 @@
     <t>https://doi.org/10.5281/zenodo.10926688</t>
   </si>
   <si>
-    <t>Geographic Information Systems and Science</t>
-  </si>
-  <si>
     <t>Point pattern analysis</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t>https://andrewmaclachlan.github.io/CASA0023/</t>
   </si>
   <si>
-    <t>Remotely Sensing Cities and Environments</t>
-  </si>
-  <si>
     <t>Leeds</t>
   </si>
   <si>
@@ -173,9 +167,6 @@
     <t xml:space="preserve">Programme accreditation </t>
   </si>
   <si>
-    <t xml:space="preserve">MSc Urban Spatial Science </t>
-  </si>
-  <si>
     <t>https://github.com/andrewmaclachlan/RGS-accreditation</t>
   </si>
   <si>
@@ -191,9 +182,6 @@
     <t>Spatial analysis of public health data</t>
   </si>
   <si>
-    <t>Critical interrogations of the digital urban in India</t>
-  </si>
-  <si>
     <t xml:space="preserve">IIT Hyderabad </t>
   </si>
   <si>
@@ -215,9 +203,6 @@
     <t>MSc in Modelling for Global Health</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>https://andrewmaclachlan.github.io/perspectives-on-teaching-reproducibility/Sheffield_conference.html#/title-slide</t>
   </si>
   <si>
@@ -267,6 +252,54 @@
   </si>
   <si>
     <t>https://github.com/andrewmaclachlan/CCT</t>
+  </si>
+  <si>
+    <t>Dissertation</t>
+  </si>
+  <si>
+    <t>GIS</t>
+  </si>
+  <si>
+    <t>Remote sensing</t>
+  </si>
+  <si>
+    <t>Health modelling</t>
+  </si>
+  <si>
+    <t>Careers</t>
+  </si>
+  <si>
+    <t>Figure code</t>
+  </si>
+  <si>
+    <t>Study area</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>person-chalkboard</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>certificate</t>
+  </si>
+  <si>
+    <t>github</t>
+  </si>
+  <si>
+    <t>Remotely Sensing Cities and Environments book</t>
+  </si>
+  <si>
+    <t>Geographic Information Systems and Science book</t>
+  </si>
+  <si>
+    <t>Critical interrogations of the digital urban in India book</t>
+  </si>
+  <si>
+    <t>Spatial analysis of public health data book</t>
   </si>
 </sst>
 </file>
@@ -319,14 +352,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -343,6 +375,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -662,21 +698,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B245866-484B-4C42-BB5F-73A7295E0F38}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.26953125" customWidth="1"/>
-    <col min="5" max="5" width="37.76953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -687,56 +723,68 @@
         <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="H2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="F3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -744,19 +792,22 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -767,16 +818,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
+        <v>72</v>
+      </c>
+      <c r="F5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -787,16 +844,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -810,13 +873,19 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -830,13 +899,19 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -847,196 +922,256 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" t="s">
         <v>20</v>
       </c>
-      <c r="E9" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" t="s">
         <v>22</v>
       </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="H10" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="H11" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="H12" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1044,19 +1179,25 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.75">
+        <v>75</v>
+      </c>
+      <c r="F19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1064,126 +1205,156 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" t="s">
         <v>47</v>
       </c>
-      <c r="D20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" t="s">
         <v>52</v>
       </c>
-      <c r="D21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.75">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" t="s">
         <v>68</v>
       </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" t="s">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" t="s">
         <v>70</v>
       </c>
-      <c r="F23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A24" t="s">
+      <c r="H25" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="B24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A25" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" xr:uid="{A8220BD2-7D29-4BD6-A9F4-D455AAB7B963}"/>
-    <hyperlink ref="F10" r:id="rId2" location="1" xr:uid="{4FA662DF-FC5E-4A5A-8C8B-0AAB7B07B5E5}"/>
-    <hyperlink ref="F11" r:id="rId3" location="1" xr:uid="{74F1728B-D13A-4DD3-9116-3F0EF30C2EEB}"/>
-    <hyperlink ref="F12" r:id="rId4" location="1" xr:uid="{3BE5C475-FED2-4074-AAA2-7C74638E65C3}"/>
-    <hyperlink ref="F13" r:id="rId5" location="1" xr:uid="{5899B3C7-B785-4EB0-94CA-7BF6ADF882B9}"/>
-    <hyperlink ref="F14" r:id="rId6" location="1" xr:uid="{F2BC2A64-B5A5-4F15-AE32-CAFA2490DF78}"/>
-    <hyperlink ref="F15" r:id="rId7" location="1" xr:uid="{91364E41-5084-49BA-BC86-DCE45E9A806A}"/>
-    <hyperlink ref="F16" r:id="rId8" location="1" xr:uid="{27F928C1-AA3D-48EF-B578-2A60C8B475D1}"/>
-    <hyperlink ref="F17" r:id="rId9" location="1" xr:uid="{3BB4E006-5592-4C87-A174-83C971D66936}"/>
-    <hyperlink ref="F18" r:id="rId10" location="1" xr:uid="{34015C02-4892-4F99-822E-1236259B5FAD}"/>
-    <hyperlink ref="F19" r:id="rId11" location="1" xr:uid="{28EDB64A-A05A-47CB-9A54-D2604F998D1A}"/>
-    <hyperlink ref="F25" r:id="rId12" xr:uid="{7D2C0392-C47D-4253-A0A0-9BDF98674457}"/>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{A8220BD2-7D29-4BD6-A9F4-D455AAB7B963}"/>
+    <hyperlink ref="H10" r:id="rId2" location="1" xr:uid="{4FA662DF-FC5E-4A5A-8C8B-0AAB7B07B5E5}"/>
+    <hyperlink ref="H11" r:id="rId3" location="1" xr:uid="{74F1728B-D13A-4DD3-9116-3F0EF30C2EEB}"/>
+    <hyperlink ref="H12" r:id="rId4" location="1" xr:uid="{3BE5C475-FED2-4074-AAA2-7C74638E65C3}"/>
+    <hyperlink ref="H13" r:id="rId5" location="1" xr:uid="{5899B3C7-B785-4EB0-94CA-7BF6ADF882B9}"/>
+    <hyperlink ref="H14" r:id="rId6" location="1" xr:uid="{F2BC2A64-B5A5-4F15-AE32-CAFA2490DF78}"/>
+    <hyperlink ref="H15" r:id="rId7" location="1" xr:uid="{91364E41-5084-49BA-BC86-DCE45E9A806A}"/>
+    <hyperlink ref="H16" r:id="rId8" location="1" xr:uid="{27F928C1-AA3D-48EF-B578-2A60C8B475D1}"/>
+    <hyperlink ref="H17" r:id="rId9" location="1" xr:uid="{3BB4E006-5592-4C87-A174-83C971D66936}"/>
+    <hyperlink ref="H18" r:id="rId10" location="1" xr:uid="{34015C02-4892-4F99-822E-1236259B5FAD}"/>
+    <hyperlink ref="H19" r:id="rId11" location="1" xr:uid="{28EDB64A-A05A-47CB-9A54-D2604F998D1A}"/>
+    <hyperlink ref="H25" r:id="rId12" xr:uid="{7D2C0392-C47D-4253-A0A0-9BDF98674457}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId13"/>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/ucfnmac_ucl_ac_uk/Documents/General/website/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy\OneDrive - University College London\General\website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="14_{753DDDC7-04B4-43F4-8EA7-A447851C672E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F8FD299-6695-4FE0-8608-27A2ECB36029}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C47ABF-ACC7-4105-A9A2-693E46DC2D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14025" yWindow="4230" windowWidth="43200" windowHeight="12330" xr2:uid="{6362DE6B-9A95-49B5-8331-B8A2B0F11EDC}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="17460" windowHeight="10260" xr2:uid="{6362DE6B-9A95-49B5-8331-B8A2B0F11EDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -272,9 +272,6 @@
     <t>Figure code</t>
   </si>
   <si>
-    <t>Study area</t>
-  </si>
-  <si>
     <t>Icon</t>
   </si>
   <si>
@@ -300,6 +297,9 @@
   </si>
   <si>
     <t>Spatial analysis of public health data book</t>
+  </si>
+  <si>
+    <t>Figure 1. True colour composite airborne hyperspectral mosaics collected during the Wytham Woods 2021 (top left), Wytham Woods 2018 (middle left), and Valencia Anchor Station 2017 (bottom left) campaigns, in addition to the location of the elementary sampling units (ESUs) in which in situ LAI and LCC measurements were performed (middle), and the location of each study site (right)</t>
   </si>
 </sst>
 </file>
@@ -375,10 +375,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -700,19 +696,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B245866-484B-4C42-BB5F-73A7295E0F38}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.26953125" customWidth="1"/>
+    <col min="7" max="7" width="37.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -729,7 +725,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>8</v>
@@ -738,7 +734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -752,7 +748,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s">
         <v>42</v>
@@ -761,7 +757,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -775,7 +771,7 @@
         <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s">
         <v>56</v>
@@ -784,7 +780,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -798,7 +794,7 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
@@ -807,7 +803,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -824,7 +820,7 @@
         <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
         <v>61</v>
@@ -833,7 +829,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -850,7 +846,7 @@
         <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
         <v>59</v>
@@ -859,7 +855,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -876,16 +872,16 @@
         <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -902,7 +898,7 @@
         <v>73</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
@@ -911,7 +907,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -928,16 +924,16 @@
         <v>74</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -954,7 +950,7 @@
         <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s">
         <v>22</v>
@@ -963,7 +959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -980,7 +976,7 @@
         <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s">
         <v>24</v>
@@ -989,7 +985,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1006,7 +1002,7 @@
         <v>74</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s">
         <v>25</v>
@@ -1015,7 +1011,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1032,7 +1028,7 @@
         <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s">
         <v>26</v>
@@ -1041,7 +1037,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1058,7 +1054,7 @@
         <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s">
         <v>27</v>
@@ -1067,7 +1063,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1084,7 +1080,7 @@
         <v>74</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
         <v>28</v>
@@ -1093,7 +1089,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1110,7 +1106,7 @@
         <v>74</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s">
         <v>29</v>
@@ -1119,7 +1115,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1136,7 +1132,7 @@
         <v>74</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s">
         <v>30</v>
@@ -1145,7 +1141,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1162,7 +1158,7 @@
         <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s">
         <v>31</v>
@@ -1171,7 +1167,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1188,16 +1184,16 @@
         <v>75</v>
       </c>
       <c r="F19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1214,7 +1210,7 @@
         <v>75</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s">
         <v>47</v>
@@ -1223,7 +1219,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -1237,16 +1233,16 @@
         <v>73</v>
       </c>
       <c r="F21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
@@ -1260,7 +1256,7 @@
         <v>73</v>
       </c>
       <c r="F22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s">
         <v>51</v>
@@ -1269,7 +1265,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -1283,7 +1279,7 @@
         <v>76</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s">
         <v>65</v>
@@ -1292,7 +1288,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -1306,16 +1302,16 @@
         <v>77</v>
       </c>
       <c r="F24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G24" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -1332,7 +1328,7 @@
         <v>77</v>
       </c>
       <c r="F25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G25" t="s">
         <v>70</v>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy\OneDrive - University College London\General\website\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/ucfnmac_ucl_ac_uk/Documents/General/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C47ABF-ACC7-4105-A9A2-693E46DC2D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{88C47ABF-ACC7-4105-A9A2-693E46DC2D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAF983FE-BFDA-4EFF-B257-5F85A51C2C06}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="17460" windowHeight="10260" xr2:uid="{6362DE6B-9A95-49B5-8331-B8A2B0F11EDC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="17520" xr2:uid="{6362DE6B-9A95-49B5-8331-B8A2B0F11EDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="90">
   <si>
     <t>UCL</t>
   </si>
@@ -300,6 +300,12 @@
   </si>
   <si>
     <t>Figure 1. True colour composite airborne hyperspectral mosaics collected during the Wytham Woods 2021 (top left), Wytham Woods 2018 (middle left), and Valencia Anchor Station 2017 (bottom left) campaigns, in addition to the location of the elementary sampling units (ESUs) in which in situ LAI and LCC measurements were performed (middle), and the location of each study site (right)</t>
+  </si>
+  <si>
+    <t>https://github.com/andrewmaclachlan/brighton_schools</t>
+  </si>
+  <si>
+    <t>Geofacet grid and Shiny application code for Brighton schools visualisations</t>
   </si>
 </sst>
 </file>
@@ -694,21 +700,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B245866-484B-4C42-BB5F-73A7295E0F38}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.26953125" customWidth="1"/>
-    <col min="7" max="7" width="37.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -734,7 +740,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -757,7 +763,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -780,7 +786,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -803,7 +809,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -829,7 +835,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -855,7 +861,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -881,7 +887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -907,7 +913,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -933,7 +939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -959,7 +965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -985,7 +991,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1011,7 +1017,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1037,7 +1043,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1063,7 +1069,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1089,7 +1095,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1115,7 +1121,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1141,7 +1147,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1167,7 +1173,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1193,7 +1199,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1219,7 +1225,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -1242,7 +1248,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
@@ -1265,7 +1271,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -1288,7 +1294,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -1311,7 +1317,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -1335,6 +1341,20 @@
       </c>
       <c r="H25" s="3" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1351,8 +1371,9 @@
     <hyperlink ref="H18" r:id="rId10" location="1" xr:uid="{34015C02-4892-4F99-822E-1236259B5FAD}"/>
     <hyperlink ref="H19" r:id="rId11" location="1" xr:uid="{28EDB64A-A05A-47CB-9A54-D2604F998D1A}"/>
     <hyperlink ref="H25" r:id="rId12" xr:uid="{7D2C0392-C47D-4253-A0A0-9BDF98674457}"/>
+    <hyperlink ref="H26" r:id="rId13" xr:uid="{BAF77C57-F733-4A0C-83F9-D78146204745}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>